--- a/Schachroboter_Zeitplan.xlsx
+++ b/Schachroboter_Zeitplan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9753C46A-C220-4941-AC89-298835080C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{9753C46A-C220-4941-AC89-298835080C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8C6C6F0-DE97-40A9-800B-6F7B99659750}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="415" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="415" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="12" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="66">
   <si>
     <t>INFORMATIONEN ZU DIESEM GANTT-DIAGRAMM</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>Fazit/Ausblick</t>
+  </si>
+  <si>
+    <t>Gesamtfortschritt</t>
   </si>
 </sst>
 </file>
@@ -2833,19 +2836,19 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" style="8" customWidth="1"/>
-    <col min="3" max="5" width="40.7265625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="2.7265625" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="6"/>
+    <col min="1" max="1" width="4.77734375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="2.77734375" style="8" customWidth="1"/>
+    <col min="3" max="5" width="40.77734375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="2.77734375" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.21875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.6">
       <c r="D1" s="107"/>
     </row>
-    <row r="2" spans="1:13" ht="50.15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="7"/>
       <c r="B2" s="113"/>
       <c r="C2" s="126" t="s">
@@ -2862,7 +2865,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="7"/>
       <c r="B3" s="108"/>
       <c r="C3" s="109"/>
@@ -2877,7 +2880,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:13" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="7"/>
       <c r="B4" s="108"/>
       <c r="C4" s="127" t="s">
@@ -2894,7 +2897,7 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13" s="8" customFormat="1" ht="193.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:13" s="8" customFormat="1" ht="193.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="7"/>
       <c r="B5" s="108"/>
       <c r="C5" s="127" t="s">
@@ -2919,11 +2922,11 @@
       <c r="E6" s="111"/>
       <c r="F6" s="111"/>
     </row>
-    <row r="7" spans="1:13" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
     </row>
@@ -2935,7 +2938,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
     </row>
@@ -3007,22 +3010,22 @@
       <selection activeCell="BT11" sqref="BT11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="37.81640625" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
-    <col min="4" max="4" width="20.54296875" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" customWidth="1"/>
-    <col min="8" max="8" width="2.7265625" customWidth="1"/>
-    <col min="9" max="64" width="3.54296875" customWidth="1"/>
-    <col min="65" max="65" width="2.7265625" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="37.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="2.77734375" customWidth="1"/>
+    <col min="9" max="64" width="3.5546875" customWidth="1"/>
+    <col min="65" max="65" width="2.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="25.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:68" ht="49.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:68" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:68" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="129" t="s">
         <v>3</v>
@@ -3091,7 +3094,7 @@
       <c r="BL2" s="67"/>
       <c r="BM2" s="67"/>
     </row>
-    <row r="3" spans="1:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="68"/>
       <c r="C3" s="69"/>
@@ -3105,7 +3108,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="72" t="s">
         <v>4</v>
@@ -3159,7 +3162,7 @@
       <c r="AO4" s="128"/>
       <c r="AP4" s="128"/>
     </row>
-    <row r="5" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -3173,14 +3176,14 @@
       <c r="G5" s="75"/>
       <c r="H5" s="75"/>
     </row>
-    <row r="6" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
       <c r="B6" s="79" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="80" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Meilensteine4352[Start])=0,TODAY(),B11(Meilensteine4352[Start])),TODAY())</f>
-        <v>45298</v>
+        <v>45331</v>
       </c>
       <c r="D6" s="81"/>
       <c r="E6" s="75"/>
@@ -3189,7 +3192,7 @@
       <c r="H6" s="75"/>
       <c r="I6" s="91" t="str">
         <f ca="1">TEXT(I7,"MMMM")</f>
-        <v>Januar</v>
+        <v>Februar</v>
       </c>
       <c r="J6" s="91"/>
       <c r="K6" s="91"/>
@@ -3219,7 +3222,7 @@
       <c r="AC6" s="91"/>
       <c r="AD6" s="91" t="str">
         <f ca="1">IF(OR(TEXT(AD7,"MMMM")=W6,TEXT(AD7,"MMMM")=P6,TEXT(AD7,"MMMM")=I6),"",TEXT(AD7,"MMMM"))</f>
-        <v/>
+        <v>März</v>
       </c>
       <c r="AE6" s="91"/>
       <c r="AF6" s="91"/>
@@ -3229,7 +3232,7 @@
       <c r="AJ6" s="91"/>
       <c r="AK6" s="91" t="str">
         <f ca="1">IF(OR(TEXT(AK7,"MMMM")=AD6,TEXT(AK7,"MMMM")=W6,TEXT(AK7,"MMMM")=P6,TEXT(AK7,"MMMM")=I6),"",TEXT(AK7,"MMMM"))</f>
-        <v>Februar</v>
+        <v/>
       </c>
       <c r="AL6" s="91"/>
       <c r="AM6" s="91"/>
@@ -3268,7 +3271,7 @@
       <c r="BK6" s="90"/>
       <c r="BL6" s="90"/>
     </row>
-    <row r="7" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="79" t="s">
         <v>14</v>
@@ -3283,230 +3286,230 @@
       <c r="H7" s="83"/>
       <c r="I7" s="98">
         <f ca="1">IFERROR(Projekt_Start+Scrollschrittweite,TODAY())</f>
-        <v>45299</v>
+        <v>45332</v>
       </c>
       <c r="J7" s="99">
         <f ca="1">I7+1</f>
-        <v>45300</v>
+        <v>45333</v>
       </c>
       <c r="K7" s="99">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>45301</v>
+        <v>45334</v>
       </c>
       <c r="L7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45302</v>
+        <v>45335</v>
       </c>
       <c r="M7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45303</v>
+        <v>45336</v>
       </c>
       <c r="N7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45304</v>
+        <v>45337</v>
       </c>
       <c r="O7" s="100">
         <f t="shared" ca="1" si="0"/>
-        <v>45305</v>
+        <v>45338</v>
       </c>
       <c r="P7" s="99">
         <f ca="1">O7+1</f>
-        <v>45306</v>
+        <v>45339</v>
       </c>
       <c r="Q7" s="99">
         <f ca="1">P7+1</f>
-        <v>45307</v>
+        <v>45340</v>
       </c>
       <c r="R7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45308</v>
+        <v>45341</v>
       </c>
       <c r="S7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45309</v>
+        <v>45342</v>
       </c>
       <c r="T7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45310</v>
+        <v>45343</v>
       </c>
       <c r="U7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="V7" s="100">
         <f t="shared" ca="1" si="0"/>
-        <v>45312</v>
+        <v>45345</v>
       </c>
       <c r="W7" s="99">
         <f ca="1">V7+1</f>
-        <v>45313</v>
+        <v>45346</v>
       </c>
       <c r="X7" s="99">
         <f ca="1">W7+1</f>
-        <v>45314</v>
+        <v>45347</v>
       </c>
       <c r="Y7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45315</v>
+        <v>45348</v>
       </c>
       <c r="Z7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45316</v>
+        <v>45349</v>
       </c>
       <c r="AA7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45317</v>
+        <v>45350</v>
       </c>
       <c r="AB7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45318</v>
+        <v>45351</v>
       </c>
       <c r="AC7" s="100">
         <f t="shared" ca="1" si="0"/>
-        <v>45319</v>
+        <v>45352</v>
       </c>
       <c r="AD7" s="99">
         <f ca="1">AC7+1</f>
-        <v>45320</v>
+        <v>45353</v>
       </c>
       <c r="AE7" s="99">
         <f ca="1">AD7+1</f>
-        <v>45321</v>
+        <v>45354</v>
       </c>
       <c r="AF7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45322</v>
+        <v>45355</v>
       </c>
       <c r="AG7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45323</v>
+        <v>45356</v>
       </c>
       <c r="AH7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45324</v>
+        <v>45357</v>
       </c>
       <c r="AI7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45325</v>
+        <v>45358</v>
       </c>
       <c r="AJ7" s="100">
         <f t="shared" ca="1" si="0"/>
-        <v>45326</v>
+        <v>45359</v>
       </c>
       <c r="AK7" s="99">
         <f ca="1">AJ7+1</f>
-        <v>45327</v>
+        <v>45360</v>
       </c>
       <c r="AL7" s="99">
         <f ca="1">AK7+1</f>
-        <v>45328</v>
+        <v>45361</v>
       </c>
       <c r="AM7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45329</v>
+        <v>45362</v>
       </c>
       <c r="AN7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45330</v>
+        <v>45363</v>
       </c>
       <c r="AO7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45331</v>
+        <v>45364</v>
       </c>
       <c r="AP7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45332</v>
+        <v>45365</v>
       </c>
       <c r="AQ7" s="100">
         <f t="shared" ca="1" si="0"/>
-        <v>45333</v>
+        <v>45366</v>
       </c>
       <c r="AR7" s="99">
         <f ca="1">AQ7+1</f>
-        <v>45334</v>
+        <v>45367</v>
       </c>
       <c r="AS7" s="99">
         <f ca="1">AR7+1</f>
-        <v>45335</v>
+        <v>45368</v>
       </c>
       <c r="AT7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45336</v>
+        <v>45369</v>
       </c>
       <c r="AU7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45337</v>
+        <v>45370</v>
       </c>
       <c r="AV7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45338</v>
+        <v>45371</v>
       </c>
       <c r="AW7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45339</v>
+        <v>45372</v>
       </c>
       <c r="AX7" s="100">
         <f t="shared" ca="1" si="0"/>
-        <v>45340</v>
+        <v>45373</v>
       </c>
       <c r="AY7" s="99">
         <f ca="1">AX7+1</f>
-        <v>45341</v>
+        <v>45374</v>
       </c>
       <c r="AZ7" s="99">
         <f ca="1">AY7+1</f>
-        <v>45342</v>
+        <v>45375</v>
       </c>
       <c r="BA7" s="99">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>45343</v>
+        <v>45376</v>
       </c>
       <c r="BB7" s="99">
         <f t="shared" ca="1" si="1"/>
-        <v>45344</v>
+        <v>45377</v>
       </c>
       <c r="BC7" s="99">
         <f t="shared" ca="1" si="1"/>
-        <v>45345</v>
+        <v>45378</v>
       </c>
       <c r="BD7" s="99">
         <f t="shared" ca="1" si="1"/>
-        <v>45346</v>
+        <v>45379</v>
       </c>
       <c r="BE7" s="100">
         <f t="shared" ca="1" si="1"/>
-        <v>45347</v>
+        <v>45380</v>
       </c>
       <c r="BF7" s="99">
         <f ca="1">BE7+1</f>
-        <v>45348</v>
+        <v>45381</v>
       </c>
       <c r="BG7" s="99">
         <f ca="1">BF7+1</f>
-        <v>45349</v>
+        <v>45382</v>
       </c>
       <c r="BH7" s="99">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>45350</v>
+        <v>45383</v>
       </c>
       <c r="BI7" s="99">
         <f t="shared" ca="1" si="2"/>
-        <v>45351</v>
+        <v>45384</v>
       </c>
       <c r="BJ7" s="99">
         <f t="shared" ca="1" si="2"/>
-        <v>45352</v>
+        <v>45385</v>
       </c>
       <c r="BK7" s="99">
         <f t="shared" ca="1" si="2"/>
-        <v>45353</v>
+        <v>45386</v>
       </c>
       <c r="BL7" s="100">
         <f t="shared" ca="1" si="2"/>
-        <v>45354</v>
+        <v>45387</v>
       </c>
     </row>
-    <row r="8" spans="1:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="74"/>
       <c r="C8" s="74"/>
@@ -3572,7 +3575,7 @@
       <c r="BK8" s="102"/>
       <c r="BL8" s="105"/>
     </row>
-    <row r="9" spans="1:68" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:68" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
@@ -3597,11 +3600,11 @@
       <c r="H9" s="88"/>
       <c r="I9" s="106" t="str">
         <f t="shared" ref="I9:AN9" ca="1" si="3">LEFT(TEXT(I7,"TTT"),1)</f>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="J9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="K9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3613,23 +3616,23 @@
       </c>
       <c r="M9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="N9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="O9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="P9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="Q9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="R9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3641,23 +3644,23 @@
       </c>
       <c r="T9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="U9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="V9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="W9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="X9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="Y9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3669,23 +3672,23 @@
       </c>
       <c r="AA9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AB9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AC9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="AD9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AE9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="AF9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3697,23 +3700,23 @@
       </c>
       <c r="AH9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AI9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AJ9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="AK9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AL9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="AM9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3725,23 +3728,23 @@
       </c>
       <c r="AO9" s="106" t="str">
         <f t="shared" ref="AO9:BL9" ca="1" si="4">LEFT(TEXT(AO7,"TTT"),1)</f>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AP9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AQ9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="AR9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AS9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="AT9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3753,23 +3756,23 @@
       </c>
       <c r="AV9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AW9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AX9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="AY9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AZ9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="BA9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3781,23 +3784,23 @@
       </c>
       <c r="BC9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="BD9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="BE9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="BF9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="BG9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="BH9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3809,18 +3812,18 @@
       </c>
       <c r="BJ9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="BK9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="BL9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>F</v>
       </c>
     </row>
-    <row r="10" spans="1:68" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:68" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16"/>
       <c r="C10" s="13"/>
       <c r="D10" s="12"/>
@@ -3884,7 +3887,7 @@
       <c r="BK10" s="36"/>
       <c r="BL10" s="36"/>
     </row>
-    <row r="11" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="116" t="s">
         <v>22</v>
@@ -4121,7 +4124,7 @@
       </c>
       <c r="BP11" s="41"/>
     </row>
-    <row r="12" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="63" t="s">
         <v>23</v>
@@ -4137,7 +4140,7 @@
       </c>
       <c r="F12" s="61">
         <f ca="1">TODAY()</f>
-        <v>45298</v>
+        <v>45331</v>
       </c>
       <c r="G12" s="62">
         <v>3</v>
@@ -4368,7 +4371,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="63" t="s">
         <v>26</v>
@@ -4380,7 +4383,7 @@
       <c r="E13" s="60"/>
       <c r="F13" s="61">
         <f ca="1">TODAY()+5</f>
-        <v>45303</v>
+        <v>45336</v>
       </c>
       <c r="G13" s="62">
         <v>1</v>
@@ -4611,7 +4614,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="63" t="s">
         <v>28</v>
@@ -4625,7 +4628,7 @@
       </c>
       <c r="F14" s="61">
         <f ca="1">F12-3</f>
-        <v>45295</v>
+        <v>45328</v>
       </c>
       <c r="G14" s="62">
         <v>10</v>
@@ -4856,7 +4859,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="63" t="s">
         <v>29</v>
@@ -4868,7 +4871,7 @@
       <c r="E15" s="60"/>
       <c r="F15" s="61">
         <f ca="1">F12+20</f>
-        <v>45318</v>
+        <v>45351</v>
       </c>
       <c r="G15" s="62">
         <v>1</v>
@@ -5099,7 +5102,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="63" t="s">
         <v>30</v>
@@ -5113,7 +5116,7 @@
       </c>
       <c r="F16" s="61">
         <f ca="1">F12+6</f>
-        <v>45304</v>
+        <v>45337</v>
       </c>
       <c r="G16" s="62">
         <v>6</v>
@@ -5344,7 +5347,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:64" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:64" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="116" t="s">
         <v>31</v>
@@ -5580,7 +5583,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:64" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:64" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="63" t="s">
         <v>23</v>
@@ -5594,7 +5597,7 @@
       </c>
       <c r="F18" s="61">
         <f ca="1">F12+6</f>
-        <v>45304</v>
+        <v>45337</v>
       </c>
       <c r="G18" s="62">
         <v>13</v>
@@ -5825,7 +5828,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:64" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:64" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="63" t="s">
         <v>26</v>
@@ -5839,7 +5842,7 @@
       </c>
       <c r="F19" s="61">
         <f ca="1">F18+2</f>
-        <v>45306</v>
+        <v>45339</v>
       </c>
       <c r="G19" s="62">
         <v>9</v>
@@ -6070,7 +6073,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:64" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:64" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="63" t="s">
         <v>28</v>
@@ -6084,7 +6087,7 @@
       </c>
       <c r="F20" s="61">
         <f ca="1">F19+5</f>
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="G20" s="62">
         <v>11</v>
@@ -6315,7 +6318,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:64" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:64" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="63" t="s">
         <v>29</v>
@@ -6327,7 +6330,7 @@
       <c r="E21" s="60"/>
       <c r="F21" s="61">
         <f ca="1">F20+2</f>
-        <v>45313</v>
+        <v>45346</v>
       </c>
       <c r="G21" s="62">
         <v>1</v>
@@ -6558,7 +6561,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:64" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:64" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="63" t="s">
         <v>30</v>
@@ -6568,7 +6571,7 @@
       <c r="E22" s="60"/>
       <c r="F22" s="61">
         <f ca="1">F21+1</f>
-        <v>45314</v>
+        <v>45347</v>
       </c>
       <c r="G22" s="62">
         <v>24</v>
@@ -6799,7 +6802,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:64" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:64" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="116" t="s">
         <v>33</v>
@@ -7035,7 +7038,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:64" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:64" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="63" t="s">
         <v>23</v>
@@ -7047,7 +7050,7 @@
       <c r="E24" s="60"/>
       <c r="F24" s="61">
         <f ca="1">F12+15</f>
-        <v>45313</v>
+        <v>45346</v>
       </c>
       <c r="G24" s="62">
         <v>4</v>
@@ -7278,7 +7281,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:64" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:64" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="63" t="s">
         <v>26</v>
@@ -7290,7 +7293,7 @@
       <c r="E25" s="60"/>
       <c r="F25" s="61">
         <f ca="1">F24+3</f>
-        <v>45316</v>
+        <v>45349</v>
       </c>
       <c r="G25" s="62">
         <v>14</v>
@@ -7521,7 +7524,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:64" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:64" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="63" t="s">
         <v>28</v>
@@ -7533,7 +7536,7 @@
       <c r="E26" s="60"/>
       <c r="F26" s="61">
         <f ca="1">F25+15</f>
-        <v>45331</v>
+        <v>45364</v>
       </c>
       <c r="G26" s="62">
         <v>6</v>
@@ -7764,7 +7767,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:64" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:64" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="63" t="s">
         <v>29</v>
@@ -7776,7 +7779,7 @@
       <c r="E27" s="60"/>
       <c r="F27" s="61">
         <f ca="1">F21+22</f>
-        <v>45335</v>
+        <v>45368</v>
       </c>
       <c r="G27" s="62">
         <v>3</v>
@@ -8007,7 +8010,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:64" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:64" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="63" t="s">
         <v>30</v>
@@ -8019,7 +8022,7 @@
       <c r="E28" s="60"/>
       <c r="F28" s="61">
         <f ca="1">F16</f>
-        <v>45304</v>
+        <v>45337</v>
       </c>
       <c r="G28" s="62">
         <v>19</v>
@@ -8250,7 +8253,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:64" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:64" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="116" t="s">
         <v>34</v>
@@ -8486,7 +8489,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:64" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:64" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="63" t="s">
         <v>23</v>
@@ -8496,7 +8499,7 @@
       <c r="E30" s="60"/>
       <c r="F30" s="61">
         <f ca="1">F27+3</f>
-        <v>45338</v>
+        <v>45371</v>
       </c>
       <c r="G30" s="62">
         <v>15</v>
@@ -8727,7 +8730,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:64" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:64" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="63" t="s">
         <v>26</v>
@@ -8737,7 +8740,7 @@
       <c r="E31" s="60"/>
       <c r="F31" s="61">
         <f ca="1">F30+14</f>
-        <v>45352</v>
+        <v>45385</v>
       </c>
       <c r="G31" s="62">
         <v>5</v>
@@ -8968,7 +8971,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:64" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:64" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="63" t="s">
         <v>28</v>
@@ -8980,7 +8983,7 @@
       <c r="E32" s="60"/>
       <c r="F32" s="61">
         <f ca="1">F31+42</f>
-        <v>45394</v>
+        <v>45427</v>
       </c>
       <c r="G32" s="62">
         <v>1</v>
@@ -9211,7 +9214,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="63" t="s">
         <v>29</v>
@@ -9447,7 +9450,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="63" t="s">
         <v>30</v>
@@ -9683,7 +9686,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
       <c r="B35" s="63"/>
       <c r="C35" s="59"/>
@@ -9918,7 +9921,7 @@
       </c>
       <c r="BM35" s="89"/>
     </row>
-    <row r="36" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="118" t="s">
         <v>35</v>
@@ -9986,12 +9989,12 @@
       <c r="BK36" s="87"/>
       <c r="BL36" s="87"/>
     </row>
-    <row r="37" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="4"/>
       <c r="G37" s="11"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D38" s="5"/>
     </row>
   </sheetData>
@@ -10159,22 +10162,22 @@
       <selection activeCell="BO7" sqref="BO7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="37.81640625" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
-    <col min="4" max="4" width="20.54296875" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" customWidth="1"/>
-    <col min="8" max="8" width="2.7265625" customWidth="1"/>
-    <col min="9" max="64" width="3.54296875" customWidth="1"/>
-    <col min="65" max="65" width="2.7265625" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="37.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="2.77734375" customWidth="1"/>
+    <col min="9" max="64" width="3.5546875" customWidth="1"/>
+    <col min="65" max="65" width="2.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="25.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:68" ht="49.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:68" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:68" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="136" t="s">
         <v>3</v>
@@ -10243,7 +10246,7 @@
       <c r="BL2" s="20"/>
       <c r="BM2" s="20"/>
     </row>
-    <row r="3" spans="1:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="42"/>
       <c r="C3" s="43"/>
@@ -10310,7 +10313,7 @@
       <c r="BL3" s="32"/>
       <c r="BM3" s="32"/>
     </row>
-    <row r="4" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="54" t="s">
         <v>4</v>
@@ -10391,7 +10394,7 @@
       <c r="BL4" s="32"/>
       <c r="BM4" s="32"/>
     </row>
-    <row r="5" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -10462,14 +10465,14 @@
       <c r="BL5" s="32"/>
       <c r="BM5" s="32"/>
     </row>
-    <row r="6" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
       <c r="B6" s="49" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="34" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Meilensteine435[Start])=0,TODAY(),B11(Meilensteine435[Start])),TODAY())</f>
-        <v>45298</v>
+        <v>45331</v>
       </c>
       <c r="D6" s="53"/>
       <c r="E6" s="32"/>
@@ -10478,7 +10481,7 @@
       <c r="H6" s="29"/>
       <c r="I6" s="94" t="str">
         <f ca="1">TEXT(I7,"MMMM")</f>
-        <v>Januar</v>
+        <v>Februar</v>
       </c>
       <c r="J6" s="94"/>
       <c r="K6" s="94"/>
@@ -10508,7 +10511,7 @@
       <c r="AC6" s="94"/>
       <c r="AD6" s="94" t="str">
         <f ca="1">IF(OR(TEXT(AD7,"MMMM")=W6,TEXT(AD7,"MMMM")=P6,TEXT(AD7,"MMMM")=I6),"",TEXT(AD7,"MMMM"))</f>
-        <v/>
+        <v>März</v>
       </c>
       <c r="AE6" s="94"/>
       <c r="AF6" s="94"/>
@@ -10518,7 +10521,7 @@
       <c r="AJ6" s="94"/>
       <c r="AK6" s="94" t="str">
         <f ca="1">IF(OR(TEXT(AK7,"MMMM")=AD6,TEXT(AK7,"MMMM")=W6,TEXT(AK7,"MMMM")=P6,TEXT(AK7,"MMMM")=I6),"",TEXT(AK7,"MMMM"))</f>
-        <v>Februar</v>
+        <v/>
       </c>
       <c r="AL6" s="94"/>
       <c r="AM6" s="94"/>
@@ -10558,7 +10561,7 @@
       <c r="BL6" s="65"/>
       <c r="BM6" s="32"/>
     </row>
-    <row r="7" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="49" t="s">
         <v>14</v>
@@ -10573,231 +10576,231 @@
       <c r="H7" s="29"/>
       <c r="I7" s="96">
         <f ca="1">IFERROR(Projekt_Start+Scrollschrittweite,TODAY())</f>
-        <v>45299</v>
+        <v>45332</v>
       </c>
       <c r="J7" s="17">
         <f ca="1">I7+1</f>
-        <v>45300</v>
+        <v>45333</v>
       </c>
       <c r="K7" s="17">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>45301</v>
+        <v>45334</v>
       </c>
       <c r="L7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45302</v>
+        <v>45335</v>
       </c>
       <c r="M7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45303</v>
+        <v>45336</v>
       </c>
       <c r="N7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45304</v>
+        <v>45337</v>
       </c>
       <c r="O7" s="64">
         <f t="shared" ca="1" si="0"/>
-        <v>45305</v>
+        <v>45338</v>
       </c>
       <c r="P7" s="17">
         <f ca="1">O7+1</f>
-        <v>45306</v>
+        <v>45339</v>
       </c>
       <c r="Q7" s="17">
         <f ca="1">P7+1</f>
-        <v>45307</v>
+        <v>45340</v>
       </c>
       <c r="R7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45308</v>
+        <v>45341</v>
       </c>
       <c r="S7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45309</v>
+        <v>45342</v>
       </c>
       <c r="T7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45310</v>
+        <v>45343</v>
       </c>
       <c r="U7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="V7" s="64">
         <f t="shared" ca="1" si="0"/>
-        <v>45312</v>
+        <v>45345</v>
       </c>
       <c r="W7" s="17">
         <f ca="1">V7+1</f>
-        <v>45313</v>
+        <v>45346</v>
       </c>
       <c r="X7" s="17">
         <f ca="1">W7+1</f>
-        <v>45314</v>
+        <v>45347</v>
       </c>
       <c r="Y7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45315</v>
+        <v>45348</v>
       </c>
       <c r="Z7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45316</v>
+        <v>45349</v>
       </c>
       <c r="AA7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45317</v>
+        <v>45350</v>
       </c>
       <c r="AB7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45318</v>
+        <v>45351</v>
       </c>
       <c r="AC7" s="64">
         <f t="shared" ca="1" si="0"/>
-        <v>45319</v>
+        <v>45352</v>
       </c>
       <c r="AD7" s="17">
         <f ca="1">AC7+1</f>
-        <v>45320</v>
+        <v>45353</v>
       </c>
       <c r="AE7" s="17">
         <f ca="1">AD7+1</f>
-        <v>45321</v>
+        <v>45354</v>
       </c>
       <c r="AF7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45322</v>
+        <v>45355</v>
       </c>
       <c r="AG7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45323</v>
+        <v>45356</v>
       </c>
       <c r="AH7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45324</v>
+        <v>45357</v>
       </c>
       <c r="AI7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45325</v>
+        <v>45358</v>
       </c>
       <c r="AJ7" s="64">
         <f t="shared" ca="1" si="0"/>
-        <v>45326</v>
+        <v>45359</v>
       </c>
       <c r="AK7" s="17">
         <f ca="1">AJ7+1</f>
-        <v>45327</v>
+        <v>45360</v>
       </c>
       <c r="AL7" s="17">
         <f ca="1">AK7+1</f>
-        <v>45328</v>
+        <v>45361</v>
       </c>
       <c r="AM7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45329</v>
+        <v>45362</v>
       </c>
       <c r="AN7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45330</v>
+        <v>45363</v>
       </c>
       <c r="AO7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45331</v>
+        <v>45364</v>
       </c>
       <c r="AP7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45332</v>
+        <v>45365</v>
       </c>
       <c r="AQ7" s="64">
         <f t="shared" ca="1" si="0"/>
-        <v>45333</v>
+        <v>45366</v>
       </c>
       <c r="AR7" s="17">
         <f ca="1">AQ7+1</f>
-        <v>45334</v>
+        <v>45367</v>
       </c>
       <c r="AS7" s="17">
         <f ca="1">AR7+1</f>
-        <v>45335</v>
+        <v>45368</v>
       </c>
       <c r="AT7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45336</v>
+        <v>45369</v>
       </c>
       <c r="AU7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45337</v>
+        <v>45370</v>
       </c>
       <c r="AV7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45338</v>
+        <v>45371</v>
       </c>
       <c r="AW7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45339</v>
+        <v>45372</v>
       </c>
       <c r="AX7" s="64">
         <f t="shared" ca="1" si="0"/>
-        <v>45340</v>
+        <v>45373</v>
       </c>
       <c r="AY7" s="17">
         <f ca="1">AX7+1</f>
-        <v>45341</v>
+        <v>45374</v>
       </c>
       <c r="AZ7" s="17">
         <f ca="1">AY7+1</f>
-        <v>45342</v>
+        <v>45375</v>
       </c>
       <c r="BA7" s="17">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>45343</v>
+        <v>45376</v>
       </c>
       <c r="BB7" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>45344</v>
+        <v>45377</v>
       </c>
       <c r="BC7" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>45345</v>
+        <v>45378</v>
       </c>
       <c r="BD7" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>45346</v>
+        <v>45379</v>
       </c>
       <c r="BE7" s="64">
         <f t="shared" ca="1" si="1"/>
-        <v>45347</v>
+        <v>45380</v>
       </c>
       <c r="BF7" s="17">
         <f ca="1">BE7+1</f>
-        <v>45348</v>
+        <v>45381</v>
       </c>
       <c r="BG7" s="17">
         <f ca="1">BF7+1</f>
-        <v>45349</v>
+        <v>45382</v>
       </c>
       <c r="BH7" s="17">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>45350</v>
+        <v>45383</v>
       </c>
       <c r="BI7" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>45351</v>
+        <v>45384</v>
       </c>
       <c r="BJ7" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>45352</v>
+        <v>45385</v>
       </c>
       <c r="BK7" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>45353</v>
+        <v>45386</v>
       </c>
       <c r="BL7" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>45354</v>
+        <v>45387</v>
       </c>
       <c r="BM7" s="32"/>
     </row>
-    <row r="8" spans="1:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -10864,7 +10867,7 @@
       <c r="BL8" s="39"/>
       <c r="BM8" s="32"/>
     </row>
-    <row r="9" spans="1:68" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:68" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
@@ -10889,11 +10892,11 @@
       <c r="H9" s="48"/>
       <c r="I9" s="37" t="str">
         <f t="shared" ref="I9:AN9" ca="1" si="3">LEFT(TEXT(I7,"TTT"),1)</f>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="J9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="K9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10905,23 +10908,23 @@
       </c>
       <c r="M9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="N9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="O9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="P9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="Q9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="R9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10933,23 +10936,23 @@
       </c>
       <c r="T9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="U9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="V9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="W9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="X9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="Y9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10961,23 +10964,23 @@
       </c>
       <c r="AA9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AB9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AC9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="AD9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AE9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="AF9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10989,23 +10992,23 @@
       </c>
       <c r="AH9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AI9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AJ9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="AK9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AL9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="AM9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11017,23 +11020,23 @@
       </c>
       <c r="AO9" s="37" t="str">
         <f t="shared" ref="AO9:BL9" ca="1" si="4">LEFT(TEXT(AO7,"TTT"),1)</f>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AP9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AQ9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="AR9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AS9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="AT9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -11045,23 +11048,23 @@
       </c>
       <c r="AV9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AW9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AX9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="AY9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AZ9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="BA9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -11073,23 +11076,23 @@
       </c>
       <c r="BC9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="BD9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="BE9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="BF9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="BG9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="BH9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -11101,19 +11104,19 @@
       </c>
       <c r="BJ9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="BK9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="BL9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>F</v>
       </c>
       <c r="BM9" s="32"/>
     </row>
-    <row r="10" spans="1:68" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:68" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16"/>
       <c r="C10" s="13"/>
       <c r="D10" s="12"/>
@@ -11179,7 +11182,7 @@
       <c r="BL10" s="36"/>
       <c r="BM10" s="32"/>
     </row>
-    <row r="11" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="121" t="s">
         <v>22</v>
@@ -11417,7 +11420,7 @@
       <c r="BM11" s="28"/>
       <c r="BP11" s="41"/>
     </row>
-    <row r="12" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="25" t="s">
         <v>23</v>
@@ -11433,7 +11436,7 @@
       </c>
       <c r="F12" s="23">
         <f ca="1">TODAY()</f>
-        <v>45298</v>
+        <v>45331</v>
       </c>
       <c r="G12" s="24">
         <v>3</v>
@@ -11665,7 +11668,7 @@
       </c>
       <c r="BM12" s="28"/>
     </row>
-    <row r="13" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="25" t="s">
         <v>26</v>
@@ -11677,7 +11680,7 @@
       <c r="E13" s="22"/>
       <c r="F13" s="23">
         <f ca="1">TODAY()+5</f>
-        <v>45303</v>
+        <v>45336</v>
       </c>
       <c r="G13" s="24">
         <v>1</v>
@@ -11909,7 +11912,7 @@
       </c>
       <c r="BM13" s="28"/>
     </row>
-    <row r="14" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="25" t="s">
         <v>28</v>
@@ -11923,7 +11926,7 @@
       </c>
       <c r="F14" s="23">
         <f ca="1">F12-3</f>
-        <v>45295</v>
+        <v>45328</v>
       </c>
       <c r="G14" s="24">
         <v>10</v>
@@ -12155,7 +12158,7 @@
       </c>
       <c r="BM14" s="28"/>
     </row>
-    <row r="15" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="25" t="s">
         <v>29</v>
@@ -12167,7 +12170,7 @@
       <c r="E15" s="22"/>
       <c r="F15" s="23">
         <f ca="1">F12+20</f>
-        <v>45318</v>
+        <v>45351</v>
       </c>
       <c r="G15" s="24">
         <v>1</v>
@@ -12399,7 +12402,7 @@
       </c>
       <c r="BM15" s="28"/>
     </row>
-    <row r="16" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:68" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="25" t="s">
         <v>30</v>
@@ -12413,7 +12416,7 @@
       </c>
       <c r="F16" s="23">
         <f ca="1">F12+6</f>
-        <v>45304</v>
+        <v>45337</v>
       </c>
       <c r="G16" s="24">
         <v>6</v>
@@ -12645,7 +12648,7 @@
       </c>
       <c r="BM16" s="28"/>
     </row>
-    <row r="17" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="121" t="s">
         <v>31</v>
@@ -12882,7 +12885,7 @@
       </c>
       <c r="BM17" s="28"/>
     </row>
-    <row r="18" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="25" t="s">
         <v>23</v>
@@ -12896,7 +12899,7 @@
       </c>
       <c r="F18" s="23">
         <f ca="1">F12+6</f>
-        <v>45304</v>
+        <v>45337</v>
       </c>
       <c r="G18" s="24">
         <v>13</v>
@@ -13128,7 +13131,7 @@
       </c>
       <c r="BM18" s="28"/>
     </row>
-    <row r="19" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="25" t="s">
         <v>26</v>
@@ -13142,7 +13145,7 @@
       </c>
       <c r="F19" s="23">
         <f ca="1">F18+2</f>
-        <v>45306</v>
+        <v>45339</v>
       </c>
       <c r="G19" s="24">
         <v>9</v>
@@ -13374,7 +13377,7 @@
       </c>
       <c r="BM19" s="28"/>
     </row>
-    <row r="20" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="25" t="s">
         <v>28</v>
@@ -13388,7 +13391,7 @@
       </c>
       <c r="F20" s="23">
         <f ca="1">F19+5</f>
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="G20" s="24">
         <v>11</v>
@@ -13620,7 +13623,7 @@
       </c>
       <c r="BM20" s="28"/>
     </row>
-    <row r="21" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="25" t="s">
         <v>29</v>
@@ -13632,7 +13635,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="23">
         <f ca="1">F20+2</f>
-        <v>45313</v>
+        <v>45346</v>
       </c>
       <c r="G21" s="24">
         <v>1</v>
@@ -13864,7 +13867,7 @@
       </c>
       <c r="BM21" s="28"/>
     </row>
-    <row r="22" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="25" t="s">
         <v>30</v>
@@ -13874,7 +13877,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="23">
         <f ca="1">F21+1</f>
-        <v>45314</v>
+        <v>45347</v>
       </c>
       <c r="G22" s="24">
         <v>24</v>
@@ -14106,7 +14109,7 @@
       </c>
       <c r="BM22" s="28"/>
     </row>
-    <row r="23" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="121" t="s">
         <v>33</v>
@@ -14343,7 +14346,7 @@
       </c>
       <c r="BM23" s="28"/>
     </row>
-    <row r="24" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="25" t="s">
         <v>23</v>
@@ -14355,7 +14358,7 @@
       <c r="E24" s="22"/>
       <c r="F24" s="23">
         <f ca="1">F12+15</f>
-        <v>45313</v>
+        <v>45346</v>
       </c>
       <c r="G24" s="24">
         <v>4</v>
@@ -14587,7 +14590,7 @@
       </c>
       <c r="BM24" s="28"/>
     </row>
-    <row r="25" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="25" t="s">
         <v>26</v>
@@ -14599,7 +14602,7 @@
       <c r="E25" s="22"/>
       <c r="F25" s="23">
         <f ca="1">F24+3</f>
-        <v>45316</v>
+        <v>45349</v>
       </c>
       <c r="G25" s="24">
         <v>14</v>
@@ -14831,7 +14834,7 @@
       </c>
       <c r="BM25" s="28"/>
     </row>
-    <row r="26" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="25" t="s">
         <v>28</v>
@@ -14843,7 +14846,7 @@
       <c r="E26" s="22"/>
       <c r="F26" s="23">
         <f ca="1">F25+15</f>
-        <v>45331</v>
+        <v>45364</v>
       </c>
       <c r="G26" s="24">
         <v>6</v>
@@ -15075,7 +15078,7 @@
       </c>
       <c r="BM26" s="28"/>
     </row>
-    <row r="27" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="25" t="s">
         <v>29</v>
@@ -15087,7 +15090,7 @@
       <c r="E27" s="22"/>
       <c r="F27" s="23">
         <f ca="1">F21+22</f>
-        <v>45335</v>
+        <v>45368</v>
       </c>
       <c r="G27" s="24">
         <v>3</v>
@@ -15319,7 +15322,7 @@
       </c>
       <c r="BM27" s="28"/>
     </row>
-    <row r="28" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="25" t="s">
         <v>30</v>
@@ -15331,7 +15334,7 @@
       <c r="E28" s="22"/>
       <c r="F28" s="23">
         <f ca="1">F16</f>
-        <v>45304</v>
+        <v>45337</v>
       </c>
       <c r="G28" s="24">
         <v>19</v>
@@ -15563,7 +15566,7 @@
       </c>
       <c r="BM28" s="28"/>
     </row>
-    <row r="29" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="121" t="s">
         <v>34</v>
@@ -15800,7 +15803,7 @@
       </c>
       <c r="BM29" s="28"/>
     </row>
-    <row r="30" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="25" t="s">
         <v>23</v>
@@ -15810,7 +15813,7 @@
       <c r="E30" s="22"/>
       <c r="F30" s="23">
         <f ca="1">F27+3</f>
-        <v>45338</v>
+        <v>45371</v>
       </c>
       <c r="G30" s="24">
         <v>15</v>
@@ -16042,7 +16045,7 @@
       </c>
       <c r="BM30" s="28"/>
     </row>
-    <row r="31" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="25" t="s">
         <v>26</v>
@@ -16052,7 +16055,7 @@
       <c r="E31" s="22"/>
       <c r="F31" s="23">
         <f ca="1">F30+14</f>
-        <v>45352</v>
+        <v>45385</v>
       </c>
       <c r="G31" s="24">
         <v>5</v>
@@ -16284,7 +16287,7 @@
       </c>
       <c r="BM31" s="28"/>
     </row>
-    <row r="32" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="25" t="s">
         <v>28</v>
@@ -16296,7 +16299,7 @@
       <c r="E32" s="22"/>
       <c r="F32" s="23">
         <f ca="1">F31+42</f>
-        <v>45394</v>
+        <v>45427</v>
       </c>
       <c r="G32" s="24">
         <v>1</v>
@@ -16528,7 +16531,7 @@
       </c>
       <c r="BM32" s="28"/>
     </row>
-    <row r="33" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="25" t="s">
         <v>29</v>
@@ -16765,7 +16768,7 @@
       </c>
       <c r="BM33" s="28"/>
     </row>
-    <row r="34" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="25" t="s">
         <v>30</v>
@@ -17002,7 +17005,7 @@
       </c>
       <c r="BM34" s="28"/>
     </row>
-    <row r="35" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
       <c r="B35" s="25"/>
       <c r="C35" s="21"/>
@@ -17237,7 +17240,7 @@
       </c>
       <c r="BM35" s="66"/>
     </row>
-    <row r="36" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:65" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="117" t="s">
         <v>35</v>
@@ -17306,12 +17309,12 @@
       <c r="BL36" s="56"/>
       <c r="BM36" s="28"/>
     </row>
-    <row r="37" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="4"/>
       <c r="G37" s="11"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D38" s="5"/>
     </row>
   </sheetData>
@@ -17475,27 +17478,27 @@
   </sheetPr>
   <dimension ref="A1:JE49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A14" zoomScale="82" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A32" zoomScale="69" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="37.81640625" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" customWidth="1"/>
-    <col min="4" max="4" width="20.54296875" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" customWidth="1"/>
-    <col min="8" max="8" width="2.7265625" customWidth="1"/>
-    <col min="9" max="64" width="3.54296875" customWidth="1"/>
-    <col min="65" max="65" width="22.7265625" hidden="1" customWidth="1"/>
-    <col min="66" max="265" width="3.54296875" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="37.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="0.109375" customWidth="1"/>
+    <col min="9" max="64" width="3.5546875" customWidth="1"/>
+    <col min="65" max="65" width="22.77734375" hidden="1" customWidth="1"/>
+    <col min="66" max="265" width="3.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:265" ht="25.15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:265" ht="49.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:265" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:265" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="140" t="s">
         <v>36</v>
@@ -17564,7 +17567,7 @@
       <c r="BL2" s="97"/>
       <c r="BM2" s="97"/>
     </row>
-    <row r="3" spans="1:265" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:265" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="68"/>
       <c r="C3" s="69"/>
@@ -17578,7 +17581,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:265" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:265" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="72"/>
       <c r="C4" s="73"/>
@@ -17626,7 +17629,7 @@
       <c r="AO4" s="128"/>
       <c r="AP4" s="128"/>
     </row>
-    <row r="5" spans="1:265" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:265" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -17640,7 +17643,7 @@
       <c r="G5" s="75"/>
       <c r="H5" s="75"/>
     </row>
-    <row r="6" spans="1:265" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:265" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
       <c r="B6" s="79" t="s">
         <v>13</v>
@@ -17962,7 +17965,7 @@
       <c r="JD6" s="91"/>
       <c r="JE6" s="91"/>
     </row>
-    <row r="7" spans="1:265" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:265" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="79" t="s">
         <v>14</v>
@@ -19004,7 +19007,7 @@
         <v>45458</v>
       </c>
     </row>
-    <row r="8" spans="1:265" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:265" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="74"/>
       <c r="C8" s="74"/>
@@ -19271,7 +19274,7 @@
       <c r="JD8" s="102"/>
       <c r="JE8" s="102"/>
     </row>
-    <row r="9" spans="1:265" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:265" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
@@ -20315,7 +20318,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="10" spans="1:265" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:265" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16"/>
       <c r="C10" s="13"/>
       <c r="D10" s="12"/>
@@ -20580,7 +20583,7 @@
       <c r="JD10" s="36"/>
       <c r="JE10" s="36"/>
     </row>
-    <row r="11" spans="1:265" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:265" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="116" t="s">
         <v>45</v>
@@ -21620,7 +21623,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:265" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:265" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="63" t="s">
         <v>46</v>
@@ -22668,7 +22671,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:265" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:265" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="63" t="s">
         <v>47</v>
@@ -23716,7 +23719,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:265" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:265" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="63" t="s">
         <v>45</v>
@@ -24764,7 +24767,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:265" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:265" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="63"/>
       <c r="C15" s="59"/>
@@ -25031,7 +25034,7 @@
       <c r="JD15" s="26"/>
       <c r="JE15" s="26"/>
     </row>
-    <row r="16" spans="1:265" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:265" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="63"/>
       <c r="C16" s="59"/>
@@ -25298,7 +25301,7 @@
       <c r="JD16" s="26"/>
       <c r="JE16" s="26"/>
     </row>
-    <row r="17" spans="1:265" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:265" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="116" t="s">
         <v>48</v>
@@ -26338,7 +26341,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:265" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:265" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="63" t="s">
         <v>49</v>
@@ -27386,7 +27389,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:265" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:265" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="63" t="s">
         <v>50</v>
@@ -27396,7 +27399,7 @@
       </c>
       <c r="D19" s="59"/>
       <c r="E19" s="60">
-        <v>0.05</v>
+        <v>0.9</v>
       </c>
       <c r="F19" s="61">
         <v>45245</v>
@@ -28434,7 +28437,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:265" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:265" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="63" t="s">
         <v>51</v>
@@ -29482,7 +29485,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:265" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:265" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="63"/>
       <c r="C21" s="59"/>
@@ -29749,7 +29752,7 @@
       <c r="JD21" s="26"/>
       <c r="JE21" s="26"/>
     </row>
-    <row r="22" spans="1:265" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:265" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="63"/>
       <c r="C22" s="59"/>
@@ -30016,7 +30019,7 @@
       <c r="JD22" s="26"/>
       <c r="JE22" s="26"/>
     </row>
-    <row r="23" spans="1:265" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:265" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="116" t="s">
         <v>52</v>
@@ -31056,7 +31059,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:265" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:265" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="63" t="s">
         <v>37</v>
@@ -32096,7 +32099,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:265" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:265" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="63" t="s">
         <v>53</v>
@@ -32105,7 +32108,9 @@
         <v>6</v>
       </c>
       <c r="D25" s="59"/>
-      <c r="E25" s="60"/>
+      <c r="E25" s="60">
+        <v>0.3</v>
+      </c>
       <c r="F25" s="61">
         <v>45306</v>
       </c>
@@ -33142,7 +33147,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:265" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:265" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="63" t="s">
         <v>54</v>
@@ -33151,7 +33156,9 @@
         <v>6</v>
       </c>
       <c r="D26" s="59"/>
-      <c r="E26" s="60"/>
+      <c r="E26" s="60">
+        <v>0</v>
+      </c>
       <c r="F26" s="61">
         <v>45315</v>
       </c>
@@ -34188,7 +34195,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:265" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:265" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="63" t="s">
         <v>55</v>
@@ -34197,7 +34204,9 @@
         <v>6</v>
       </c>
       <c r="D27" s="59"/>
-      <c r="E27" s="60"/>
+      <c r="E27" s="60">
+        <v>0</v>
+      </c>
       <c r="F27" s="61">
         <v>45338</v>
       </c>
@@ -35234,7 +35243,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:265" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:265" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="63"/>
       <c r="C28" s="59"/>
@@ -35501,7 +35510,7 @@
       <c r="JD28" s="26"/>
       <c r="JE28" s="26"/>
     </row>
-    <row r="29" spans="1:265" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:265" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="116" t="s">
         <v>56</v>
@@ -36541,7 +36550,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:265" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:265" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="63" t="s">
         <v>57</v>
@@ -36550,7 +36559,9 @@
         <v>6</v>
       </c>
       <c r="D30" s="59"/>
-      <c r="E30" s="60"/>
+      <c r="E30" s="60">
+        <v>0.1</v>
+      </c>
       <c r="F30" s="61">
         <v>45361</v>
       </c>
@@ -37587,7 +37598,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:265" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:265" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="63" t="s">
         <v>58</v>
@@ -37596,7 +37607,9 @@
         <v>6</v>
       </c>
       <c r="D31" s="59"/>
-      <c r="E31" s="60"/>
+      <c r="E31" s="60">
+        <v>0.1</v>
+      </c>
       <c r="F31" s="61">
         <v>45366</v>
       </c>
@@ -38633,7 +38646,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:265" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:265" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="63"/>
       <c r="C32" s="59"/>
@@ -38900,7 +38913,7 @@
       <c r="JD32" s="26"/>
       <c r="JE32" s="26"/>
     </row>
-    <row r="33" spans="1:265" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:265" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="63"/>
       <c r="C33" s="59"/>
@@ -39167,7 +39180,7 @@
       <c r="JD33" s="26"/>
       <c r="JE33" s="26"/>
     </row>
-    <row r="34" spans="1:265" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:265" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="63"/>
       <c r="C34" s="59"/>
@@ -39434,7 +39447,7 @@
       <c r="JD34" s="26"/>
       <c r="JE34" s="26"/>
     </row>
-    <row r="35" spans="1:265" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:265" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
       <c r="B35" s="63"/>
       <c r="C35" s="59"/>
@@ -40472,7 +40485,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:265" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:265" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="116" t="s">
         <v>59</v>
@@ -41512,7 +41525,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:265" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:265" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="63" t="s">
         <v>60</v>
       </c>
@@ -41520,7 +41533,9 @@
         <v>6</v>
       </c>
       <c r="D37" s="59"/>
-      <c r="E37" s="60"/>
+      <c r="E37" s="60">
+        <v>0.2</v>
+      </c>
       <c r="F37" s="61">
         <v>45209</v>
       </c>
@@ -42557,7 +42572,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:265" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:265" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="63" t="s">
         <v>61</v>
       </c>
@@ -42565,7 +42580,9 @@
         <v>6</v>
       </c>
       <c r="D38" s="59"/>
-      <c r="E38" s="60"/>
+      <c r="E38" s="60">
+        <v>0</v>
+      </c>
       <c r="F38" s="61">
         <v>45217</v>
       </c>
@@ -43602,7 +43619,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:265" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:265" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="63" t="s">
         <v>62</v>
       </c>
@@ -43610,7 +43627,9 @@
         <v>6</v>
       </c>
       <c r="D39" s="59"/>
-      <c r="E39" s="60"/>
+      <c r="E39" s="60">
+        <v>0</v>
+      </c>
       <c r="F39" s="61">
         <v>45225</v>
       </c>
@@ -44647,7 +44666,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:265" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:265" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="63" t="s">
         <v>63</v>
       </c>
@@ -44655,7 +44674,9 @@
         <v>6</v>
       </c>
       <c r="D40" s="59"/>
-      <c r="E40" s="60"/>
+      <c r="E40" s="60">
+        <v>0</v>
+      </c>
       <c r="F40" s="61">
         <v>45256</v>
       </c>
@@ -45692,7 +45713,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:265" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:265" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="63" t="s">
         <v>64</v>
       </c>
@@ -45700,7 +45721,9 @@
         <v>6</v>
       </c>
       <c r="D41" s="59"/>
-      <c r="E41" s="60"/>
+      <c r="E41" s="60">
+        <v>0</v>
+      </c>
       <c r="F41" s="61">
         <v>45406</v>
       </c>
@@ -46737,7 +46760,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:265" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:265" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="63"/>
       <c r="C42" s="59"/>
       <c r="D42" s="59"/>
@@ -47774,7 +47797,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:265" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:265" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="116"/>
       <c r="C43" s="59"/>
       <c r="D43" s="59"/>
@@ -48811,7 +48834,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:265" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:265" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="63"/>
       <c r="C44" s="59"/>
       <c r="D44" s="59"/>
@@ -49848,11 +49871,16 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:265" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="63"/>
+    <row r="45" spans="1:265" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="63" t="s">
+        <v>65</v>
+      </c>
       <c r="C45" s="59"/>
       <c r="D45" s="59"/>
-      <c r="E45" s="60"/>
+      <c r="E45" s="60">
+        <f xml:space="preserve"> (E12+E13+E14+E18+E19+E20+E25+E26+E27+E30+E37+E38+E39+E40+E41)/15</f>
+        <v>0.41333333333333327</v>
+      </c>
       <c r="F45" s="61"/>
       <c r="G45" s="62"/>
       <c r="H45" s="59"/>
@@ -50885,7 +50913,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:265" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:265" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="63"/>
       <c r="C46" s="59"/>
       <c r="D46" s="59"/>
@@ -51922,7 +51950,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:265" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:265" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="63"/>
       <c r="C47" s="59"/>
       <c r="D47" s="59"/>
@@ -52959,7 +52987,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:265" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:265" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="63"/>
       <c r="C48" s="59"/>
       <c r="D48" s="59"/>
@@ -53996,7 +54024,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:265" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:265" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="63"/>
       <c r="C49" s="59"/>
       <c r="D49" s="59"/>
@@ -55236,26 +55264,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="25" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e02306daf00165b375dc6a58966960be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df88fb76bf5f555224557953949c1ec9" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -55549,6 +55557,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -55559,18 +55587,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD6AD73-D703-40CF-AB8D-72E6A3921BEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E419B9A7-BD90-4E8F-A951-10D5C6932475}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -55591,6 +55607,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD6AD73-D703-40CF-AB8D-72E6A3921BEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAF2F40C-D12E-4644-AA6E-31E499F048DC}">
   <ds:schemaRefs>

--- a/Schachroboter_Zeitplan.xlsx
+++ b/Schachroboter_Zeitplan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{9753C46A-C220-4941-AC89-298835080C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8C6C6F0-DE97-40A9-800B-6F7B99659750}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9886F9-57BF-4D64-9EDA-DE8BD24D3202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="415" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="415" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="12" r:id="rId1"/>
@@ -2914,7 +2914,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13" ht="96.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="111"/>
       <c r="C6" s="111"/>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="C6" s="80" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Meilensteine4352[Start])=0,TODAY(),B11(Meilensteine4352[Start])),TODAY())</f>
-        <v>45331</v>
+        <v>45348</v>
       </c>
       <c r="D6" s="81"/>
       <c r="E6" s="75"/>
@@ -3202,7 +3202,7 @@
       <c r="O6" s="91"/>
       <c r="P6" s="91" t="str">
         <f ca="1">IF(TEXT(P7,"MMMM")=I6,"",TEXT(P7,"MMMM"))</f>
-        <v/>
+        <v>März</v>
       </c>
       <c r="Q6" s="91"/>
       <c r="R6" s="91"/>
@@ -3222,7 +3222,7 @@
       <c r="AC6" s="91"/>
       <c r="AD6" s="91" t="str">
         <f ca="1">IF(OR(TEXT(AD7,"MMMM")=W6,TEXT(AD7,"MMMM")=P6,TEXT(AD7,"MMMM")=I6),"",TEXT(AD7,"MMMM"))</f>
-        <v>März</v>
+        <v/>
       </c>
       <c r="AE6" s="91"/>
       <c r="AF6" s="91"/>
@@ -3242,7 +3242,7 @@
       <c r="AQ6" s="91"/>
       <c r="AR6" s="91" t="str">
         <f ca="1">IF(OR(TEXT(AR7,"MMMM")=AK6,TEXT(AR7,"MMMM")=AD6,TEXT(AR7,"MMMM")=W6,TEXT(AR7,"MMMM")=P6),"",TEXT(AR7,"MMMM"))</f>
-        <v/>
+        <v>April</v>
       </c>
       <c r="AS6" s="91"/>
       <c r="AT6" s="91"/>
@@ -3286,227 +3286,227 @@
       <c r="H7" s="83"/>
       <c r="I7" s="98">
         <f ca="1">IFERROR(Projekt_Start+Scrollschrittweite,TODAY())</f>
-        <v>45332</v>
+        <v>45349</v>
       </c>
       <c r="J7" s="99">
         <f ca="1">I7+1</f>
-        <v>45333</v>
+        <v>45350</v>
       </c>
       <c r="K7" s="99">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>45334</v>
+        <v>45351</v>
       </c>
       <c r="L7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45335</v>
+        <v>45352</v>
       </c>
       <c r="M7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45336</v>
+        <v>45353</v>
       </c>
       <c r="N7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45337</v>
+        <v>45354</v>
       </c>
       <c r="O7" s="100">
         <f t="shared" ca="1" si="0"/>
-        <v>45338</v>
+        <v>45355</v>
       </c>
       <c r="P7" s="99">
         <f ca="1">O7+1</f>
-        <v>45339</v>
+        <v>45356</v>
       </c>
       <c r="Q7" s="99">
         <f ca="1">P7+1</f>
-        <v>45340</v>
+        <v>45357</v>
       </c>
       <c r="R7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45341</v>
+        <v>45358</v>
       </c>
       <c r="S7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45342</v>
+        <v>45359</v>
       </c>
       <c r="T7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45343</v>
+        <v>45360</v>
       </c>
       <c r="U7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45344</v>
+        <v>45361</v>
       </c>
       <c r="V7" s="100">
         <f t="shared" ca="1" si="0"/>
-        <v>45345</v>
+        <v>45362</v>
       </c>
       <c r="W7" s="99">
         <f ca="1">V7+1</f>
-        <v>45346</v>
+        <v>45363</v>
       </c>
       <c r="X7" s="99">
         <f ca="1">W7+1</f>
-        <v>45347</v>
+        <v>45364</v>
       </c>
       <c r="Y7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45348</v>
+        <v>45365</v>
       </c>
       <c r="Z7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45349</v>
+        <v>45366</v>
       </c>
       <c r="AA7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45350</v>
+        <v>45367</v>
       </c>
       <c r="AB7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45351</v>
+        <v>45368</v>
       </c>
       <c r="AC7" s="100">
         <f t="shared" ca="1" si="0"/>
-        <v>45352</v>
+        <v>45369</v>
       </c>
       <c r="AD7" s="99">
         <f ca="1">AC7+1</f>
-        <v>45353</v>
+        <v>45370</v>
       </c>
       <c r="AE7" s="99">
         <f ca="1">AD7+1</f>
-        <v>45354</v>
+        <v>45371</v>
       </c>
       <c r="AF7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45355</v>
+        <v>45372</v>
       </c>
       <c r="AG7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45356</v>
+        <v>45373</v>
       </c>
       <c r="AH7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45357</v>
+        <v>45374</v>
       </c>
       <c r="AI7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45358</v>
+        <v>45375</v>
       </c>
       <c r="AJ7" s="100">
         <f t="shared" ca="1" si="0"/>
-        <v>45359</v>
+        <v>45376</v>
       </c>
       <c r="AK7" s="99">
         <f ca="1">AJ7+1</f>
-        <v>45360</v>
+        <v>45377</v>
       </c>
       <c r="AL7" s="99">
         <f ca="1">AK7+1</f>
-        <v>45361</v>
+        <v>45378</v>
       </c>
       <c r="AM7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45362</v>
+        <v>45379</v>
       </c>
       <c r="AN7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45363</v>
+        <v>45380</v>
       </c>
       <c r="AO7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45364</v>
+        <v>45381</v>
       </c>
       <c r="AP7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45365</v>
+        <v>45382</v>
       </c>
       <c r="AQ7" s="100">
         <f t="shared" ca="1" si="0"/>
-        <v>45366</v>
+        <v>45383</v>
       </c>
       <c r="AR7" s="99">
         <f ca="1">AQ7+1</f>
-        <v>45367</v>
+        <v>45384</v>
       </c>
       <c r="AS7" s="99">
         <f ca="1">AR7+1</f>
-        <v>45368</v>
+        <v>45385</v>
       </c>
       <c r="AT7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45369</v>
+        <v>45386</v>
       </c>
       <c r="AU7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45370</v>
+        <v>45387</v>
       </c>
       <c r="AV7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45371</v>
+        <v>45388</v>
       </c>
       <c r="AW7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45372</v>
+        <v>45389</v>
       </c>
       <c r="AX7" s="100">
         <f t="shared" ca="1" si="0"/>
-        <v>45373</v>
+        <v>45390</v>
       </c>
       <c r="AY7" s="99">
         <f ca="1">AX7+1</f>
-        <v>45374</v>
+        <v>45391</v>
       </c>
       <c r="AZ7" s="99">
         <f ca="1">AY7+1</f>
-        <v>45375</v>
+        <v>45392</v>
       </c>
       <c r="BA7" s="99">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>45376</v>
+        <v>45393</v>
       </c>
       <c r="BB7" s="99">
         <f t="shared" ca="1" si="1"/>
-        <v>45377</v>
+        <v>45394</v>
       </c>
       <c r="BC7" s="99">
         <f t="shared" ca="1" si="1"/>
-        <v>45378</v>
+        <v>45395</v>
       </c>
       <c r="BD7" s="99">
         <f t="shared" ca="1" si="1"/>
-        <v>45379</v>
+        <v>45396</v>
       </c>
       <c r="BE7" s="100">
         <f t="shared" ca="1" si="1"/>
-        <v>45380</v>
+        <v>45397</v>
       </c>
       <c r="BF7" s="99">
         <f ca="1">BE7+1</f>
-        <v>45381</v>
+        <v>45398</v>
       </c>
       <c r="BG7" s="99">
         <f ca="1">BF7+1</f>
-        <v>45382</v>
+        <v>45399</v>
       </c>
       <c r="BH7" s="99">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>45383</v>
+        <v>45400</v>
       </c>
       <c r="BI7" s="99">
         <f t="shared" ca="1" si="2"/>
-        <v>45384</v>
+        <v>45401</v>
       </c>
       <c r="BJ7" s="99">
         <f t="shared" ca="1" si="2"/>
-        <v>45385</v>
+        <v>45402</v>
       </c>
       <c r="BK7" s="99">
         <f t="shared" ca="1" si="2"/>
-        <v>45386</v>
+        <v>45403</v>
       </c>
       <c r="BL7" s="100">
         <f t="shared" ca="1" si="2"/>
-        <v>45387</v>
+        <v>45404</v>
       </c>
     </row>
     <row r="8" spans="1:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3600,227 +3600,227 @@
       <c r="H9" s="88"/>
       <c r="I9" s="106" t="str">
         <f t="shared" ref="I9:AN9" ca="1" si="3">LEFT(TEXT(I7,"TTT"),1)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="J9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="K9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="L9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="M9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="N9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="O9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="P9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="Q9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="R9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="S9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="T9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="U9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="V9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="W9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="X9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="Y9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="Z9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="AA9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AB9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="AC9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AD9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AE9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AF9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="AG9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="AH9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AI9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="AJ9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AK9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AL9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AM9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="AN9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="AO9" s="106" t="str">
         <f t="shared" ref="AO9:BL9" ca="1" si="4">LEFT(TEXT(AO7,"TTT"),1)</f>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AP9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="AQ9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AR9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AS9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AT9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="AU9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="AV9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AW9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="AX9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AY9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AZ9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BA9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="BB9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="BC9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="BD9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="BE9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="BF9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="BG9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BH9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="BI9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="BJ9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="BK9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="BL9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>M</v>
       </c>
     </row>
     <row r="10" spans="1:68" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4140,7 +4140,7 @@
       </c>
       <c r="F12" s="61">
         <f ca="1">TODAY()</f>
-        <v>45331</v>
+        <v>45348</v>
       </c>
       <c r="G12" s="62">
         <v>3</v>
@@ -4383,7 +4383,7 @@
       <c r="E13" s="60"/>
       <c r="F13" s="61">
         <f ca="1">TODAY()+5</f>
-        <v>45336</v>
+        <v>45353</v>
       </c>
       <c r="G13" s="62">
         <v>1</v>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="F14" s="61">
         <f ca="1">F12-3</f>
-        <v>45328</v>
+        <v>45345</v>
       </c>
       <c r="G14" s="62">
         <v>10</v>
@@ -4871,7 +4871,7 @@
       <c r="E15" s="60"/>
       <c r="F15" s="61">
         <f ca="1">F12+20</f>
-        <v>45351</v>
+        <v>45368</v>
       </c>
       <c r="G15" s="62">
         <v>1</v>
@@ -5116,7 +5116,7 @@
       </c>
       <c r="F16" s="61">
         <f ca="1">F12+6</f>
-        <v>45337</v>
+        <v>45354</v>
       </c>
       <c r="G16" s="62">
         <v>6</v>
@@ -5597,7 +5597,7 @@
       </c>
       <c r="F18" s="61">
         <f ca="1">F12+6</f>
-        <v>45337</v>
+        <v>45354</v>
       </c>
       <c r="G18" s="62">
         <v>13</v>
@@ -5842,7 +5842,7 @@
       </c>
       <c r="F19" s="61">
         <f ca="1">F18+2</f>
-        <v>45339</v>
+        <v>45356</v>
       </c>
       <c r="G19" s="62">
         <v>9</v>
@@ -6087,7 +6087,7 @@
       </c>
       <c r="F20" s="61">
         <f ca="1">F19+5</f>
-        <v>45344</v>
+        <v>45361</v>
       </c>
       <c r="G20" s="62">
         <v>11</v>
@@ -6330,7 +6330,7 @@
       <c r="E21" s="60"/>
       <c r="F21" s="61">
         <f ca="1">F20+2</f>
-        <v>45346</v>
+        <v>45363</v>
       </c>
       <c r="G21" s="62">
         <v>1</v>
@@ -6571,7 +6571,7 @@
       <c r="E22" s="60"/>
       <c r="F22" s="61">
         <f ca="1">F21+1</f>
-        <v>45347</v>
+        <v>45364</v>
       </c>
       <c r="G22" s="62">
         <v>24</v>
@@ -7050,7 +7050,7 @@
       <c r="E24" s="60"/>
       <c r="F24" s="61">
         <f ca="1">F12+15</f>
-        <v>45346</v>
+        <v>45363</v>
       </c>
       <c r="G24" s="62">
         <v>4</v>
@@ -7293,7 +7293,7 @@
       <c r="E25" s="60"/>
       <c r="F25" s="61">
         <f ca="1">F24+3</f>
-        <v>45349</v>
+        <v>45366</v>
       </c>
       <c r="G25" s="62">
         <v>14</v>
@@ -7536,7 +7536,7 @@
       <c r="E26" s="60"/>
       <c r="F26" s="61">
         <f ca="1">F25+15</f>
-        <v>45364</v>
+        <v>45381</v>
       </c>
       <c r="G26" s="62">
         <v>6</v>
@@ -7779,7 +7779,7 @@
       <c r="E27" s="60"/>
       <c r="F27" s="61">
         <f ca="1">F21+22</f>
-        <v>45368</v>
+        <v>45385</v>
       </c>
       <c r="G27" s="62">
         <v>3</v>
@@ -8022,7 +8022,7 @@
       <c r="E28" s="60"/>
       <c r="F28" s="61">
         <f ca="1">F16</f>
-        <v>45337</v>
+        <v>45354</v>
       </c>
       <c r="G28" s="62">
         <v>19</v>
@@ -8499,7 +8499,7 @@
       <c r="E30" s="60"/>
       <c r="F30" s="61">
         <f ca="1">F27+3</f>
-        <v>45371</v>
+        <v>45388</v>
       </c>
       <c r="G30" s="62">
         <v>15</v>
@@ -8740,7 +8740,7 @@
       <c r="E31" s="60"/>
       <c r="F31" s="61">
         <f ca="1">F30+14</f>
-        <v>45385</v>
+        <v>45402</v>
       </c>
       <c r="G31" s="62">
         <v>5</v>
@@ -8983,7 +8983,7 @@
       <c r="E32" s="60"/>
       <c r="F32" s="61">
         <f ca="1">F31+42</f>
-        <v>45427</v>
+        <v>45444</v>
       </c>
       <c r="G32" s="62">
         <v>1</v>
@@ -10472,7 +10472,7 @@
       </c>
       <c r="C6" s="34" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Meilensteine435[Start])=0,TODAY(),B11(Meilensteine435[Start])),TODAY())</f>
-        <v>45331</v>
+        <v>45348</v>
       </c>
       <c r="D6" s="53"/>
       <c r="E6" s="32"/>
@@ -10491,7 +10491,7 @@
       <c r="O6" s="94"/>
       <c r="P6" s="94" t="str">
         <f ca="1">IF(TEXT(P7,"MMMM")=I6,"",TEXT(P7,"MMMM"))</f>
-        <v/>
+        <v>März</v>
       </c>
       <c r="Q6" s="94"/>
       <c r="R6" s="94"/>
@@ -10511,7 +10511,7 @@
       <c r="AC6" s="94"/>
       <c r="AD6" s="94" t="str">
         <f ca="1">IF(OR(TEXT(AD7,"MMMM")=W6,TEXT(AD7,"MMMM")=P6,TEXT(AD7,"MMMM")=I6),"",TEXT(AD7,"MMMM"))</f>
-        <v>März</v>
+        <v/>
       </c>
       <c r="AE6" s="94"/>
       <c r="AF6" s="94"/>
@@ -10531,7 +10531,7 @@
       <c r="AQ6" s="94"/>
       <c r="AR6" s="94" t="str">
         <f ca="1">IF(OR(TEXT(AR7,"MMMM")=AK6,TEXT(AR7,"MMMM")=AD6,TEXT(AR7,"MMMM")=W6,TEXT(AR7,"MMMM")=P6),"",TEXT(AR7,"MMMM"))</f>
-        <v/>
+        <v>April</v>
       </c>
       <c r="AS6" s="94"/>
       <c r="AT6" s="94"/>
@@ -10576,227 +10576,227 @@
       <c r="H7" s="29"/>
       <c r="I7" s="96">
         <f ca="1">IFERROR(Projekt_Start+Scrollschrittweite,TODAY())</f>
-        <v>45332</v>
+        <v>45349</v>
       </c>
       <c r="J7" s="17">
         <f ca="1">I7+1</f>
-        <v>45333</v>
+        <v>45350</v>
       </c>
       <c r="K7" s="17">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>45334</v>
+        <v>45351</v>
       </c>
       <c r="L7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45335</v>
+        <v>45352</v>
       </c>
       <c r="M7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45336</v>
+        <v>45353</v>
       </c>
       <c r="N7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45337</v>
+        <v>45354</v>
       </c>
       <c r="O7" s="64">
         <f t="shared" ca="1" si="0"/>
-        <v>45338</v>
+        <v>45355</v>
       </c>
       <c r="P7" s="17">
         <f ca="1">O7+1</f>
-        <v>45339</v>
+        <v>45356</v>
       </c>
       <c r="Q7" s="17">
         <f ca="1">P7+1</f>
-        <v>45340</v>
+        <v>45357</v>
       </c>
       <c r="R7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45341</v>
+        <v>45358</v>
       </c>
       <c r="S7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45342</v>
+        <v>45359</v>
       </c>
       <c r="T7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45343</v>
+        <v>45360</v>
       </c>
       <c r="U7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45344</v>
+        <v>45361</v>
       </c>
       <c r="V7" s="64">
         <f t="shared" ca="1" si="0"/>
-        <v>45345</v>
+        <v>45362</v>
       </c>
       <c r="W7" s="17">
         <f ca="1">V7+1</f>
-        <v>45346</v>
+        <v>45363</v>
       </c>
       <c r="X7" s="17">
         <f ca="1">W7+1</f>
-        <v>45347</v>
+        <v>45364</v>
       </c>
       <c r="Y7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45348</v>
+        <v>45365</v>
       </c>
       <c r="Z7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45349</v>
+        <v>45366</v>
       </c>
       <c r="AA7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45350</v>
+        <v>45367</v>
       </c>
       <c r="AB7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45351</v>
+        <v>45368</v>
       </c>
       <c r="AC7" s="64">
         <f t="shared" ca="1" si="0"/>
-        <v>45352</v>
+        <v>45369</v>
       </c>
       <c r="AD7" s="17">
         <f ca="1">AC7+1</f>
-        <v>45353</v>
+        <v>45370</v>
       </c>
       <c r="AE7" s="17">
         <f ca="1">AD7+1</f>
-        <v>45354</v>
+        <v>45371</v>
       </c>
       <c r="AF7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45355</v>
+        <v>45372</v>
       </c>
       <c r="AG7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45356</v>
+        <v>45373</v>
       </c>
       <c r="AH7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45357</v>
+        <v>45374</v>
       </c>
       <c r="AI7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45358</v>
+        <v>45375</v>
       </c>
       <c r="AJ7" s="64">
         <f t="shared" ca="1" si="0"/>
-        <v>45359</v>
+        <v>45376</v>
       </c>
       <c r="AK7" s="17">
         <f ca="1">AJ7+1</f>
-        <v>45360</v>
+        <v>45377</v>
       </c>
       <c r="AL7" s="17">
         <f ca="1">AK7+1</f>
-        <v>45361</v>
+        <v>45378</v>
       </c>
       <c r="AM7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45362</v>
+        <v>45379</v>
       </c>
       <c r="AN7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45363</v>
+        <v>45380</v>
       </c>
       <c r="AO7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45364</v>
+        <v>45381</v>
       </c>
       <c r="AP7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45365</v>
+        <v>45382</v>
       </c>
       <c r="AQ7" s="64">
         <f t="shared" ca="1" si="0"/>
-        <v>45366</v>
+        <v>45383</v>
       </c>
       <c r="AR7" s="17">
         <f ca="1">AQ7+1</f>
-        <v>45367</v>
+        <v>45384</v>
       </c>
       <c r="AS7" s="17">
         <f ca="1">AR7+1</f>
-        <v>45368</v>
+        <v>45385</v>
       </c>
       <c r="AT7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45369</v>
+        <v>45386</v>
       </c>
       <c r="AU7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45370</v>
+        <v>45387</v>
       </c>
       <c r="AV7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45371</v>
+        <v>45388</v>
       </c>
       <c r="AW7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45372</v>
+        <v>45389</v>
       </c>
       <c r="AX7" s="64">
         <f t="shared" ca="1" si="0"/>
-        <v>45373</v>
+        <v>45390</v>
       </c>
       <c r="AY7" s="17">
         <f ca="1">AX7+1</f>
-        <v>45374</v>
+        <v>45391</v>
       </c>
       <c r="AZ7" s="17">
         <f ca="1">AY7+1</f>
-        <v>45375</v>
+        <v>45392</v>
       </c>
       <c r="BA7" s="17">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>45376</v>
+        <v>45393</v>
       </c>
       <c r="BB7" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>45377</v>
+        <v>45394</v>
       </c>
       <c r="BC7" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>45378</v>
+        <v>45395</v>
       </c>
       <c r="BD7" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>45379</v>
+        <v>45396</v>
       </c>
       <c r="BE7" s="64">
         <f t="shared" ca="1" si="1"/>
-        <v>45380</v>
+        <v>45397</v>
       </c>
       <c r="BF7" s="17">
         <f ca="1">BE7+1</f>
-        <v>45381</v>
+        <v>45398</v>
       </c>
       <c r="BG7" s="17">
         <f ca="1">BF7+1</f>
-        <v>45382</v>
+        <v>45399</v>
       </c>
       <c r="BH7" s="17">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>45383</v>
+        <v>45400</v>
       </c>
       <c r="BI7" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>45384</v>
+        <v>45401</v>
       </c>
       <c r="BJ7" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>45385</v>
+        <v>45402</v>
       </c>
       <c r="BK7" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>45386</v>
+        <v>45403</v>
       </c>
       <c r="BL7" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>45387</v>
+        <v>45404</v>
       </c>
       <c r="BM7" s="32"/>
     </row>
@@ -10892,227 +10892,227 @@
       <c r="H9" s="48"/>
       <c r="I9" s="37" t="str">
         <f t="shared" ref="I9:AN9" ca="1" si="3">LEFT(TEXT(I7,"TTT"),1)</f>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="J9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="K9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="L9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="M9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="N9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="O9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="P9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="Q9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="R9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="S9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="T9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="U9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="V9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="W9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="X9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="Y9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="Z9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="AA9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AB9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="AC9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AD9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AE9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AF9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="AG9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="AH9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AI9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="AJ9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AK9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AL9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AM9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="AN9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="AO9" s="37" t="str">
         <f t="shared" ref="AO9:BL9" ca="1" si="4">LEFT(TEXT(AO7,"TTT"),1)</f>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AP9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="AQ9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AR9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AS9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AT9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="AU9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="AV9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="AW9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="AX9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AY9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AZ9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BA9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="BB9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="BC9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="BD9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="BE9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="BF9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="BG9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BH9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>D</v>
       </c>
       <c r="BI9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="BJ9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>S</v>
       </c>
       <c r="BK9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="BL9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="BM9" s="32"/>
     </row>
@@ -11436,7 +11436,7 @@
       </c>
       <c r="F12" s="23">
         <f ca="1">TODAY()</f>
-        <v>45331</v>
+        <v>45348</v>
       </c>
       <c r="G12" s="24">
         <v>3</v>
@@ -11680,7 +11680,7 @@
       <c r="E13" s="22"/>
       <c r="F13" s="23">
         <f ca="1">TODAY()+5</f>
-        <v>45336</v>
+        <v>45353</v>
       </c>
       <c r="G13" s="24">
         <v>1</v>
@@ -11926,7 +11926,7 @@
       </c>
       <c r="F14" s="23">
         <f ca="1">F12-3</f>
-        <v>45328</v>
+        <v>45345</v>
       </c>
       <c r="G14" s="24">
         <v>10</v>
@@ -12170,7 +12170,7 @@
       <c r="E15" s="22"/>
       <c r="F15" s="23">
         <f ca="1">F12+20</f>
-        <v>45351</v>
+        <v>45368</v>
       </c>
       <c r="G15" s="24">
         <v>1</v>
@@ -12416,7 +12416,7 @@
       </c>
       <c r="F16" s="23">
         <f ca="1">F12+6</f>
-        <v>45337</v>
+        <v>45354</v>
       </c>
       <c r="G16" s="24">
         <v>6</v>
@@ -12899,7 +12899,7 @@
       </c>
       <c r="F18" s="23">
         <f ca="1">F12+6</f>
-        <v>45337</v>
+        <v>45354</v>
       </c>
       <c r="G18" s="24">
         <v>13</v>
@@ -13145,7 +13145,7 @@
       </c>
       <c r="F19" s="23">
         <f ca="1">F18+2</f>
-        <v>45339</v>
+        <v>45356</v>
       </c>
       <c r="G19" s="24">
         <v>9</v>
@@ -13391,7 +13391,7 @@
       </c>
       <c r="F20" s="23">
         <f ca="1">F19+5</f>
-        <v>45344</v>
+        <v>45361</v>
       </c>
       <c r="G20" s="24">
         <v>11</v>
@@ -13635,7 +13635,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="23">
         <f ca="1">F20+2</f>
-        <v>45346</v>
+        <v>45363</v>
       </c>
       <c r="G21" s="24">
         <v>1</v>
@@ -13877,7 +13877,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="23">
         <f ca="1">F21+1</f>
-        <v>45347</v>
+        <v>45364</v>
       </c>
       <c r="G22" s="24">
         <v>24</v>
@@ -14358,7 +14358,7 @@
       <c r="E24" s="22"/>
       <c r="F24" s="23">
         <f ca="1">F12+15</f>
-        <v>45346</v>
+        <v>45363</v>
       </c>
       <c r="G24" s="24">
         <v>4</v>
@@ -14602,7 +14602,7 @@
       <c r="E25" s="22"/>
       <c r="F25" s="23">
         <f ca="1">F24+3</f>
-        <v>45349</v>
+        <v>45366</v>
       </c>
       <c r="G25" s="24">
         <v>14</v>
@@ -14846,7 +14846,7 @@
       <c r="E26" s="22"/>
       <c r="F26" s="23">
         <f ca="1">F25+15</f>
-        <v>45364</v>
+        <v>45381</v>
       </c>
       <c r="G26" s="24">
         <v>6</v>
@@ -15090,7 +15090,7 @@
       <c r="E27" s="22"/>
       <c r="F27" s="23">
         <f ca="1">F21+22</f>
-        <v>45368</v>
+        <v>45385</v>
       </c>
       <c r="G27" s="24">
         <v>3</v>
@@ -15334,7 +15334,7 @@
       <c r="E28" s="22"/>
       <c r="F28" s="23">
         <f ca="1">F16</f>
-        <v>45337</v>
+        <v>45354</v>
       </c>
       <c r="G28" s="24">
         <v>19</v>
@@ -15813,7 +15813,7 @@
       <c r="E30" s="22"/>
       <c r="F30" s="23">
         <f ca="1">F27+3</f>
-        <v>45371</v>
+        <v>45388</v>
       </c>
       <c r="G30" s="24">
         <v>15</v>
@@ -16055,7 +16055,7 @@
       <c r="E31" s="22"/>
       <c r="F31" s="23">
         <f ca="1">F30+14</f>
-        <v>45385</v>
+        <v>45402</v>
       </c>
       <c r="G31" s="24">
         <v>5</v>
@@ -16299,7 +16299,7 @@
       <c r="E32" s="22"/>
       <c r="F32" s="23">
         <f ca="1">F31+42</f>
-        <v>45427</v>
+        <v>45444</v>
       </c>
       <c r="G32" s="24">
         <v>1</v>
@@ -17478,8 +17478,8 @@
   </sheetPr>
   <dimension ref="A1:JE49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A32" zoomScale="69" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -55558,6 +55558,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -55575,15 +55584,6 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55608,6 +55608,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAF2F40C-D12E-4644-AA6E-31E499F048DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD6AD73-D703-40CF-AB8D-72E6A3921BEB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -55617,12 +55625,4 @@
     <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAF2F40C-D12E-4644-AA6E-31E499F048DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Schachroboter_Zeitplan.xlsx
+++ b/Schachroboter_Zeitplan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9886F9-57BF-4D64-9EDA-DE8BD24D3202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB18C0D-2725-4E40-9204-A0EB4992E025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="415" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-4790" windowWidth="38620" windowHeight="21100" tabRatio="415" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="12" r:id="rId1"/>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="C6" s="80" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Meilensteine4352[Start])=0,TODAY(),B11(Meilensteine4352[Start])),TODAY())</f>
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="D6" s="81"/>
       <c r="E6" s="75"/>
@@ -3286,227 +3286,227 @@
       <c r="H7" s="83"/>
       <c r="I7" s="98">
         <f ca="1">IFERROR(Projekt_Start+Scrollschrittweite,TODAY())</f>
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="J7" s="99">
         <f ca="1">I7+1</f>
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="K7" s="99">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>45351</v>
+        <v>45353</v>
       </c>
       <c r="L7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45352</v>
+        <v>45354</v>
       </c>
       <c r="M7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45353</v>
+        <v>45355</v>
       </c>
       <c r="N7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="O7" s="100">
         <f t="shared" ca="1" si="0"/>
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="P7" s="99">
         <f ca="1">O7+1</f>
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="Q7" s="99">
         <f ca="1">P7+1</f>
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="R7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="S7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="T7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="U7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="V7" s="100">
         <f t="shared" ca="1" si="0"/>
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="W7" s="99">
         <f ca="1">V7+1</f>
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="X7" s="99">
         <f ca="1">W7+1</f>
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="Y7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="Z7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="AA7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="AB7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45368</v>
+        <v>45370</v>
       </c>
       <c r="AC7" s="100">
         <f t="shared" ca="1" si="0"/>
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="AD7" s="99">
         <f ca="1">AC7+1</f>
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="AE7" s="99">
         <f ca="1">AD7+1</f>
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="AF7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="AG7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="AH7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="AI7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="AJ7" s="100">
         <f t="shared" ca="1" si="0"/>
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="AK7" s="99">
         <f ca="1">AJ7+1</f>
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="AL7" s="99">
         <f ca="1">AK7+1</f>
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="AM7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="AN7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="AO7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="AP7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="AQ7" s="100">
         <f t="shared" ca="1" si="0"/>
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="AR7" s="99">
         <f ca="1">AQ7+1</f>
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="AS7" s="99">
         <f ca="1">AR7+1</f>
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="AT7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45386</v>
+        <v>45388</v>
       </c>
       <c r="AU7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="AV7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45388</v>
+        <v>45390</v>
       </c>
       <c r="AW7" s="99">
         <f t="shared" ca="1" si="0"/>
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="AX7" s="100">
         <f t="shared" ca="1" si="0"/>
-        <v>45390</v>
+        <v>45392</v>
       </c>
       <c r="AY7" s="99">
         <f ca="1">AX7+1</f>
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="AZ7" s="99">
         <f ca="1">AY7+1</f>
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="BA7" s="99">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>45393</v>
+        <v>45395</v>
       </c>
       <c r="BB7" s="99">
         <f t="shared" ca="1" si="1"/>
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="BC7" s="99">
         <f t="shared" ca="1" si="1"/>
-        <v>45395</v>
+        <v>45397</v>
       </c>
       <c r="BD7" s="99">
         <f t="shared" ca="1" si="1"/>
-        <v>45396</v>
+        <v>45398</v>
       </c>
       <c r="BE7" s="100">
         <f t="shared" ca="1" si="1"/>
-        <v>45397</v>
+        <v>45399</v>
       </c>
       <c r="BF7" s="99">
         <f ca="1">BE7+1</f>
-        <v>45398</v>
+        <v>45400</v>
       </c>
       <c r="BG7" s="99">
         <f ca="1">BF7+1</f>
-        <v>45399</v>
+        <v>45401</v>
       </c>
       <c r="BH7" s="99">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>45400</v>
+        <v>45402</v>
       </c>
       <c r="BI7" s="99">
         <f t="shared" ca="1" si="2"/>
-        <v>45401</v>
+        <v>45403</v>
       </c>
       <c r="BJ7" s="99">
         <f t="shared" ca="1" si="2"/>
-        <v>45402</v>
+        <v>45404</v>
       </c>
       <c r="BK7" s="99">
         <f t="shared" ca="1" si="2"/>
-        <v>45403</v>
+        <v>45405</v>
       </c>
       <c r="BL7" s="100">
         <f t="shared" ca="1" si="2"/>
-        <v>45404</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="8" spans="1:68" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3604,23 +3604,23 @@
       </c>
       <c r="J9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="K9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="L9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="M9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="N9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="O9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3632,23 +3632,23 @@
       </c>
       <c r="Q9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="R9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="S9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="T9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="U9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="V9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3660,23 +3660,23 @@
       </c>
       <c r="X9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="Y9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="Z9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AA9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AB9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AC9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3688,23 +3688,23 @@
       </c>
       <c r="AE9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="AF9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="AG9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AH9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AI9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AJ9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3716,23 +3716,23 @@
       </c>
       <c r="AL9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="AM9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="AN9" s="106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AO9" s="106" t="str">
         <f t="shared" ref="AO9:BL9" ca="1" si="4">LEFT(TEXT(AO7,"TTT"),1)</f>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AP9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AQ9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3744,23 +3744,23 @@
       </c>
       <c r="AS9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="AT9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="AU9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AV9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AW9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AX9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3772,23 +3772,23 @@
       </c>
       <c r="AZ9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="BA9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="BB9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BC9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BD9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="BE9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3800,23 +3800,23 @@
       </c>
       <c r="BG9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="BH9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="BI9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BJ9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BK9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="BL9" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4140,7 +4140,7 @@
       </c>
       <c r="F12" s="61">
         <f ca="1">TODAY()</f>
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="G12" s="62">
         <v>3</v>
@@ -4383,7 +4383,7 @@
       <c r="E13" s="60"/>
       <c r="F13" s="61">
         <f ca="1">TODAY()+5</f>
-        <v>45353</v>
+        <v>45355</v>
       </c>
       <c r="G13" s="62">
         <v>1</v>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="F14" s="61">
         <f ca="1">F12-3</f>
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="G14" s="62">
         <v>10</v>
@@ -4871,7 +4871,7 @@
       <c r="E15" s="60"/>
       <c r="F15" s="61">
         <f ca="1">F12+20</f>
-        <v>45368</v>
+        <v>45370</v>
       </c>
       <c r="G15" s="62">
         <v>1</v>
@@ -5116,7 +5116,7 @@
       </c>
       <c r="F16" s="61">
         <f ca="1">F12+6</f>
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="G16" s="62">
         <v>6</v>
@@ -5597,7 +5597,7 @@
       </c>
       <c r="F18" s="61">
         <f ca="1">F12+6</f>
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="G18" s="62">
         <v>13</v>
@@ -5842,7 +5842,7 @@
       </c>
       <c r="F19" s="61">
         <f ca="1">F18+2</f>
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="G19" s="62">
         <v>9</v>
@@ -6087,7 +6087,7 @@
       </c>
       <c r="F20" s="61">
         <f ca="1">F19+5</f>
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="G20" s="62">
         <v>11</v>
@@ -6330,7 +6330,7 @@
       <c r="E21" s="60"/>
       <c r="F21" s="61">
         <f ca="1">F20+2</f>
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="G21" s="62">
         <v>1</v>
@@ -6571,7 +6571,7 @@
       <c r="E22" s="60"/>
       <c r="F22" s="61">
         <f ca="1">F21+1</f>
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="G22" s="62">
         <v>24</v>
@@ -7050,7 +7050,7 @@
       <c r="E24" s="60"/>
       <c r="F24" s="61">
         <f ca="1">F12+15</f>
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="G24" s="62">
         <v>4</v>
@@ -7293,7 +7293,7 @@
       <c r="E25" s="60"/>
       <c r="F25" s="61">
         <f ca="1">F24+3</f>
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="G25" s="62">
         <v>14</v>
@@ -7536,7 +7536,7 @@
       <c r="E26" s="60"/>
       <c r="F26" s="61">
         <f ca="1">F25+15</f>
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="G26" s="62">
         <v>6</v>
@@ -7779,7 +7779,7 @@
       <c r="E27" s="60"/>
       <c r="F27" s="61">
         <f ca="1">F21+22</f>
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="G27" s="62">
         <v>3</v>
@@ -8022,7 +8022,7 @@
       <c r="E28" s="60"/>
       <c r="F28" s="61">
         <f ca="1">F16</f>
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="G28" s="62">
         <v>19</v>
@@ -8499,7 +8499,7 @@
       <c r="E30" s="60"/>
       <c r="F30" s="61">
         <f ca="1">F27+3</f>
-        <v>45388</v>
+        <v>45390</v>
       </c>
       <c r="G30" s="62">
         <v>15</v>
@@ -8740,7 +8740,7 @@
       <c r="E31" s="60"/>
       <c r="F31" s="61">
         <f ca="1">F30+14</f>
-        <v>45402</v>
+        <v>45404</v>
       </c>
       <c r="G31" s="62">
         <v>5</v>
@@ -8983,7 +8983,7 @@
       <c r="E32" s="60"/>
       <c r="F32" s="61">
         <f ca="1">F31+42</f>
-        <v>45444</v>
+        <v>45446</v>
       </c>
       <c r="G32" s="62">
         <v>1</v>
@@ -10472,7 +10472,7 @@
       </c>
       <c r="C6" s="34" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Meilensteine435[Start])=0,TODAY(),B11(Meilensteine435[Start])),TODAY())</f>
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="D6" s="53"/>
       <c r="E6" s="32"/>
@@ -10576,227 +10576,227 @@
       <c r="H7" s="29"/>
       <c r="I7" s="96">
         <f ca="1">IFERROR(Projekt_Start+Scrollschrittweite,TODAY())</f>
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="J7" s="17">
         <f ca="1">I7+1</f>
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="K7" s="17">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>45351</v>
+        <v>45353</v>
       </c>
       <c r="L7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45352</v>
+        <v>45354</v>
       </c>
       <c r="M7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45353</v>
+        <v>45355</v>
       </c>
       <c r="N7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="O7" s="64">
         <f t="shared" ca="1" si="0"/>
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="P7" s="17">
         <f ca="1">O7+1</f>
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="Q7" s="17">
         <f ca="1">P7+1</f>
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="R7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="S7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="T7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="U7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="V7" s="64">
         <f t="shared" ca="1" si="0"/>
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="W7" s="17">
         <f ca="1">V7+1</f>
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="X7" s="17">
         <f ca="1">W7+1</f>
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="Y7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="Z7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="AA7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="AB7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45368</v>
+        <v>45370</v>
       </c>
       <c r="AC7" s="64">
         <f t="shared" ca="1" si="0"/>
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="AD7" s="17">
         <f ca="1">AC7+1</f>
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="AE7" s="17">
         <f ca="1">AD7+1</f>
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="AF7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="AG7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45373</v>
+        <v>45375</v>
       </c>
       <c r="AH7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="AI7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45375</v>
+        <v>45377</v>
       </c>
       <c r="AJ7" s="64">
         <f t="shared" ca="1" si="0"/>
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="AK7" s="17">
         <f ca="1">AJ7+1</f>
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="AL7" s="17">
         <f ca="1">AK7+1</f>
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="AM7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="AN7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="AO7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="AP7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="AQ7" s="64">
         <f t="shared" ca="1" si="0"/>
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="AR7" s="17">
         <f ca="1">AQ7+1</f>
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="AS7" s="17">
         <f ca="1">AR7+1</f>
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="AT7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45386</v>
+        <v>45388</v>
       </c>
       <c r="AU7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="AV7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45388</v>
+        <v>45390</v>
       </c>
       <c r="AW7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="AX7" s="64">
         <f t="shared" ca="1" si="0"/>
-        <v>45390</v>
+        <v>45392</v>
       </c>
       <c r="AY7" s="17">
         <f ca="1">AX7+1</f>
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="AZ7" s="17">
         <f ca="1">AY7+1</f>
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="BA7" s="17">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>45393</v>
+        <v>45395</v>
       </c>
       <c r="BB7" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="BC7" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>45395</v>
+        <v>45397</v>
       </c>
       <c r="BD7" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>45396</v>
+        <v>45398</v>
       </c>
       <c r="BE7" s="64">
         <f t="shared" ca="1" si="1"/>
-        <v>45397</v>
+        <v>45399</v>
       </c>
       <c r="BF7" s="17">
         <f ca="1">BE7+1</f>
-        <v>45398</v>
+        <v>45400</v>
       </c>
       <c r="BG7" s="17">
         <f ca="1">BF7+1</f>
-        <v>45399</v>
+        <v>45401</v>
       </c>
       <c r="BH7" s="17">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>45400</v>
+        <v>45402</v>
       </c>
       <c r="BI7" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>45401</v>
+        <v>45403</v>
       </c>
       <c r="BJ7" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>45402</v>
+        <v>45404</v>
       </c>
       <c r="BK7" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>45403</v>
+        <v>45405</v>
       </c>
       <c r="BL7" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>45404</v>
+        <v>45406</v>
       </c>
       <c r="BM7" s="32"/>
     </row>
@@ -10896,23 +10896,23 @@
       </c>
       <c r="J9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="K9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="L9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="M9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="N9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="O9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10924,23 +10924,23 @@
       </c>
       <c r="Q9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="R9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="S9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="T9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="U9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="V9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10952,23 +10952,23 @@
       </c>
       <c r="X9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="Y9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="Z9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AA9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AB9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AC9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10980,23 +10980,23 @@
       </c>
       <c r="AE9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="AF9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="AG9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AH9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AI9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AJ9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11008,23 +11008,23 @@
       </c>
       <c r="AL9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="AM9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="AN9" s="37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AO9" s="37" t="str">
         <f t="shared" ref="AO9:BL9" ca="1" si="4">LEFT(TEXT(AO7,"TTT"),1)</f>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AP9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AQ9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -11036,23 +11036,23 @@
       </c>
       <c r="AS9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="AT9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="AU9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AV9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AW9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="AX9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -11064,23 +11064,23 @@
       </c>
       <c r="AZ9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="BA9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="BB9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BC9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BD9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="BE9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -11092,23 +11092,23 @@
       </c>
       <c r="BG9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>F</v>
       </c>
       <c r="BH9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>D</v>
+        <v>S</v>
       </c>
       <c r="BI9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BJ9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BK9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>D</v>
       </c>
       <c r="BL9" s="37" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -11436,7 +11436,7 @@
       </c>
       <c r="F12" s="23">
         <f ca="1">TODAY()</f>
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="G12" s="24">
         <v>3</v>
@@ -11680,7 +11680,7 @@
       <c r="E13" s="22"/>
       <c r="F13" s="23">
         <f ca="1">TODAY()+5</f>
-        <v>45353</v>
+        <v>45355</v>
       </c>
       <c r="G13" s="24">
         <v>1</v>
@@ -11926,7 +11926,7 @@
       </c>
       <c r="F14" s="23">
         <f ca="1">F12-3</f>
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="G14" s="24">
         <v>10</v>
@@ -12170,7 +12170,7 @@
       <c r="E15" s="22"/>
       <c r="F15" s="23">
         <f ca="1">F12+20</f>
-        <v>45368</v>
+        <v>45370</v>
       </c>
       <c r="G15" s="24">
         <v>1</v>
@@ -12416,7 +12416,7 @@
       </c>
       <c r="F16" s="23">
         <f ca="1">F12+6</f>
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="G16" s="24">
         <v>6</v>
@@ -12899,7 +12899,7 @@
       </c>
       <c r="F18" s="23">
         <f ca="1">F12+6</f>
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="G18" s="24">
         <v>13</v>
@@ -13145,7 +13145,7 @@
       </c>
       <c r="F19" s="23">
         <f ca="1">F18+2</f>
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="G19" s="24">
         <v>9</v>
@@ -13391,7 +13391,7 @@
       </c>
       <c r="F20" s="23">
         <f ca="1">F19+5</f>
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="G20" s="24">
         <v>11</v>
@@ -13635,7 +13635,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="23">
         <f ca="1">F20+2</f>
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="G21" s="24">
         <v>1</v>
@@ -13877,7 +13877,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="23">
         <f ca="1">F21+1</f>
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="G22" s="24">
         <v>24</v>
@@ -14358,7 +14358,7 @@
       <c r="E24" s="22"/>
       <c r="F24" s="23">
         <f ca="1">F12+15</f>
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="G24" s="24">
         <v>4</v>
@@ -14602,7 +14602,7 @@
       <c r="E25" s="22"/>
       <c r="F25" s="23">
         <f ca="1">F24+3</f>
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="G25" s="24">
         <v>14</v>
@@ -14846,7 +14846,7 @@
       <c r="E26" s="22"/>
       <c r="F26" s="23">
         <f ca="1">F25+15</f>
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="G26" s="24">
         <v>6</v>
@@ -15090,7 +15090,7 @@
       <c r="E27" s="22"/>
       <c r="F27" s="23">
         <f ca="1">F21+22</f>
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="G27" s="24">
         <v>3</v>
@@ -15334,7 +15334,7 @@
       <c r="E28" s="22"/>
       <c r="F28" s="23">
         <f ca="1">F16</f>
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="G28" s="24">
         <v>19</v>
@@ -15813,7 +15813,7 @@
       <c r="E30" s="22"/>
       <c r="F30" s="23">
         <f ca="1">F27+3</f>
-        <v>45388</v>
+        <v>45390</v>
       </c>
       <c r="G30" s="24">
         <v>15</v>
@@ -16055,7 +16055,7 @@
       <c r="E31" s="22"/>
       <c r="F31" s="23">
         <f ca="1">F30+14</f>
-        <v>45402</v>
+        <v>45404</v>
       </c>
       <c r="G31" s="24">
         <v>5</v>
@@ -16299,7 +16299,7 @@
       <c r="E32" s="22"/>
       <c r="F32" s="23">
         <f ca="1">F31+42</f>
-        <v>45444</v>
+        <v>45446</v>
       </c>
       <c r="G32" s="24">
         <v>1</v>
@@ -17478,8 +17478,8 @@
   </sheetPr>
   <dimension ref="A1:JE49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -41534,7 +41534,7 @@
       </c>
       <c r="D37" s="59"/>
       <c r="E37" s="60">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F37" s="61">
         <v>45209</v>
@@ -42581,7 +42581,7 @@
       </c>
       <c r="D38" s="59"/>
       <c r="E38" s="60">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F38" s="61">
         <v>45217</v>
@@ -43628,7 +43628,7 @@
       </c>
       <c r="D39" s="59"/>
       <c r="E39" s="60">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F39" s="61">
         <v>45225</v>
@@ -49879,7 +49879,7 @@
       <c r="D45" s="59"/>
       <c r="E45" s="60">
         <f xml:space="preserve"> (E12+E13+E14+E18+E19+E20+E25+E26+E27+E30+E37+E38+E39+E40+E41)/15</f>
-        <v>0.41333333333333327</v>
+        <v>0.49999999999999994</v>
       </c>
       <c r="F45" s="61"/>
       <c r="G45" s="62"/>
@@ -55558,15 +55558,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -55584,6 +55575,15 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55608,14 +55608,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAF2F40C-D12E-4644-AA6E-31E499F048DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD6AD73-D703-40CF-AB8D-72E6A3921BEB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -55625,4 +55617,12 @@
     <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAF2F40C-D12E-4644-AA6E-31E499F048DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>